--- a/Assets/EditorAssets/Table/物品表.xlsx
+++ b/Assets/EditorAssets/Table/物品表.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disktop\Game2D\Assets\EditorAssets\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A68ED-CCD7-4AC4-9D62-F24C9BB019D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25275" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="8010" yWindow="5520" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="植物表" sheetId="1" r:id="rId1"/>
-    <sheet name="果实表" sheetId="2" r:id="rId2"/>
-    <sheet name="物品随机表" sheetId="3" r:id="rId3"/>
+    <sheet name="物品表" sheetId="4" r:id="rId1"/>
+    <sheet name="植物表" sheetId="1" r:id="rId2"/>
+    <sheet name="果实表" sheetId="2" r:id="rId3"/>
+    <sheet name="物品随机表" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +50,7 @@
         <sz val="12"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Icon</t>
     </r>
@@ -132,9 +139,9 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Icon</t>
     </r>
@@ -142,7 +149,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -221,18 +228,54 @@
   <si>
     <t>float[][]</t>
   </si>
+  <si>
+    <t>物品名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -241,23 +284,23 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="4" tint="0.399975585192419"/>
+      <color theme="4" tint="0.39994506668294322"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -269,7 +312,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -281,16 +324,16 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="4" tint="0.399975585192419"/>
+      <color theme="4" tint="0.39994506668294322"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -303,161 +346,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,7 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149998474074526"/>
+        <fgColor theme="1" tint="0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,194 +397,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -671,253 +406,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -950,62 +443,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,30 +718,93 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AD34C0-80AD-4ED1-94FD-C804203F0699}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="42.7142857142857" customWidth="1"/>
-    <col min="5" max="8" width="24.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="18.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1382,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1410,7 +928,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1422,7 +940,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1434,7 +952,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1446,7 +964,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1458,7 +976,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1470,7 +988,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1482,7 +1000,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1494,7 +1012,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1506,7 +1024,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1518,7 +1036,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1530,7 +1048,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1542,7 +1060,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1554,7 +1072,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1566,7 +1084,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1578,7 +1096,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1590,7 +1108,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1602,7 +1120,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1614,7 +1132,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1626,7 +1144,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1638,7 +1156,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1651,31 +1169,30 @@
       <c r="J24" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="36.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="28.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1753,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1761,7 +1278,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1769,7 +1286,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1777,7 +1294,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1785,7 +1302,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1793,7 +1310,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1801,7 +1318,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1809,7 +1326,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1817,7 +1334,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1825,7 +1342,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1833,7 +1350,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1841,7 +1358,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1849,7 +1366,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1857,7 +1374,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1865,7 +1382,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1873,7 +1390,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1882,29 +1399,28 @@
       <c r="F20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
-    <col min="3" max="5" width="17.7142857142857" customWidth="1"/>
-    <col min="6" max="8" width="36.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="8" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:8">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:8">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +1499,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/EditorAssets/Table/物品表.xlsx
+++ b/Assets/EditorAssets/Table/物品表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disktop\Game2D\Assets\EditorAssets\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A68ED-CCD7-4AC4-9D62-F24C9BB019D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="5520" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25275" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="4" r:id="rId1"/>
@@ -28,10 +22,60 @@
     <t>ID</t>
   </si>
   <si>
+    <t>物品名</t>
+  </si>
+  <si>
+    <t>预制体名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+  </si>
+  <si>
+    <t>goodName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>植物名</t>
-  </si>
-  <si>
-    <t>预制体名</t>
   </si>
   <si>
     <r>
@@ -50,7 +94,7 @@
         <sz val="12"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Icon</t>
     </r>
@@ -87,12 +131,6 @@
     <t>PlantName</t>
   </si>
   <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>IconPath</t>
-  </si>
-  <si>
     <t>IsFruit</t>
   </si>
   <si>
@@ -109,12 +147,6 @@
   </si>
   <si>
     <t>FruitPhase</t>
-  </si>
-  <si>
-    <t>uint</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>bool</t>
@@ -139,9 +171,9 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0" tint="-0.0499893185216834"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Icon</t>
     </r>
@@ -149,7 +181,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0" tint="-0.0499893185216834"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -228,54 +260,18 @@
   <si>
     <t>float[][]</t>
   </si>
-  <si>
-    <t>物品名</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodName</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物品</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Icon</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路径</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -284,23 +280,23 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="4" tint="0.39994506668294322"/>
+      <color theme="4" tint="0.399945066682943"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -312,7 +308,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -324,16 +320,16 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="4" tint="0.39994506668294322"/>
+      <color theme="4" tint="0.399945066682943"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -346,39 +342,175 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,7 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14996795556505021"/>
+        <fgColor theme="1" tint="0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,8 +529,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -406,11 +724,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -443,24 +1003,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -718,197 +1319,200 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AD34C0-80AD-4ED1-94FD-C804203F0699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="42.7142857142857" customWidth="1"/>
+    <col min="5" max="8" width="24.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="18.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:10">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="b">
@@ -928,7 +1532,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -940,7 +1544,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -952,7 +1556,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -964,7 +1568,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -976,7 +1580,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -988,7 +1592,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1000,7 +1604,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1012,7 +1616,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1024,7 +1628,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1036,7 +1640,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1048,7 +1652,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1060,7 +1664,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1072,7 +1676,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1084,7 +1688,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1096,7 +1700,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1108,7 +1712,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1120,7 +1724,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1132,7 +1736,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1144,7 +1748,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1156,7 +1760,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1169,98 +1773,99 @@
       <c r="J24" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="36.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="18.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
@@ -1270,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1278,7 +1883,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1286,7 +1891,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1294,7 +1899,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1302,7 +1907,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1310,7 +1915,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1318,7 +1923,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1326,7 +1931,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1334,7 +1939,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1342,7 +1947,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1350,7 +1955,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1358,7 +1963,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1366,7 +1971,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1374,7 +1979,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1382,7 +1987,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1390,7 +1995,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1399,107 +2004,108 @@
       <c r="F20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="8" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="5" width="17.7142857142857" customWidth="1"/>
+    <col min="6" max="8" width="36.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>